--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-9.552627721682475</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.72937060377368</v>
+        <v>-11.02366926113449</v>
       </c>
       <c r="F2" t="n">
-        <v>5.803079901083766</v>
+        <v>5.669424231356045</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.49221628473675</v>
+        <v>-19.62592084453314</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.607596075672088</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.07431448326886</v>
+        <v>-11.35324210304009</v>
       </c>
       <c r="F3" t="n">
-        <v>5.742544218057625</v>
+        <v>5.617082523838854</v>
       </c>
       <c r="G3" t="n">
-        <v>-18.95764249589454</v>
+        <v>-19.06620778238125</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.577627824886112</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.14707757246916</v>
+        <v>-11.42603941528846</v>
       </c>
       <c r="F4" t="n">
-        <v>5.557544198213564</v>
+        <v>5.442848097115739</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.14189703312918</v>
+        <v>-18.26191726270508</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.557891087138807</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.62158991195132</v>
+        <v>-11.89293468207197</v>
       </c>
       <c r="F5" t="n">
-        <v>5.818367825556609</v>
+        <v>5.712726165176311</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.56829919147525</v>
+        <v>-17.71904682920971</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.541033051014475</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.03207581750437</v>
+        <v>-12.26470943125278</v>
       </c>
       <c r="F6" t="n">
-        <v>5.678840458581723</v>
+        <v>5.581338994634838</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.18476638077951</v>
+        <v>-17.31972252633383</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.55452592877069</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.90834229627527</v>
+        <v>-13.14706272357299</v>
       </c>
       <c r="F7" t="n">
-        <v>5.708697623517973</v>
+        <v>5.611812174436319</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.36544216498757</v>
+        <v>-16.50228057818565</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.599493303631871</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.77194135825399</v>
+        <v>-13.9789663540335</v>
       </c>
       <c r="F8" t="n">
-        <v>5.966983856297089</v>
+        <v>5.871120209650622</v>
       </c>
       <c r="G8" t="n">
-        <v>-15.98258892624632</v>
+        <v>-16.12241452264009</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.705041322260186</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.32204263290553</v>
+        <v>-14.53706115491245</v>
       </c>
       <c r="F9" t="n">
-        <v>6.1273432815319</v>
+        <v>6.025744829830541</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.93417798025013</v>
+        <v>-16.08231977732452</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.87835955702069</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.0783524391898</v>
+        <v>-15.28726948062681</v>
       </c>
       <c r="F10" t="n">
-        <v>6.485096359018401</v>
+        <v>6.378520898326522</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.26319112180725</v>
+        <v>-15.38306957018401</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.142894930169296</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.3887603741771</v>
+        <v>-15.60889768637368</v>
       </c>
       <c r="F11" t="n">
-        <v>6.398844499872288</v>
+        <v>6.305596471899618</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.60340008908962</v>
+        <v>-14.73752510347656</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5147050337885991</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.46621926353528</v>
+        <v>-16.65848923659045</v>
       </c>
       <c r="F12" t="n">
-        <v>6.793651360403137</v>
+        <v>6.718209095439772</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.27441881701491</v>
+        <v>-14.43395200008921</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.001350219983119089</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.02598610476271</v>
+        <v>-17.22192772197493</v>
       </c>
       <c r="F13" t="n">
-        <v>7.085143727822341</v>
+        <v>7.011984629065825</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.74527671480184</v>
+        <v>-13.91639684415073</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3848323736047605</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.3155252230008</v>
+        <v>-18.52174353264727</v>
       </c>
       <c r="F14" t="n">
-        <v>7.150612418777198</v>
+        <v>7.085476180289291</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.18051330855642</v>
+        <v>-13.34643153459892</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.655036528542133</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.47956118139953</v>
+        <v>-18.67208049380491</v>
       </c>
       <c r="F15" t="n">
-        <v>7.175140566228511</v>
+        <v>7.132938658953301</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.59712767515493</v>
+        <v>-12.7671868900137</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8234728896475235</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.69022106284681</v>
+        <v>-19.88511154358264</v>
       </c>
       <c r="F16" t="n">
-        <v>7.201922545845471</v>
+        <v>7.167288821200246</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.55231503821279</v>
+        <v>-12.70771701048455</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9149263057331046</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.72901768590143</v>
+        <v>-20.91809024846563</v>
       </c>
       <c r="F17" t="n">
-        <v>7.651632953491776</v>
+        <v>7.605881627231185</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.14349628400136</v>
+        <v>-12.33556580777498</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9602192213143459</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.36483791795058</v>
+        <v>-21.56236357338769</v>
       </c>
       <c r="F18" t="n">
-        <v>7.906183985024569</v>
+        <v>7.874004541826535</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.48318701655583</v>
+        <v>-11.66109797644286</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9848758860902366</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.04880508962512</v>
+        <v>-22.26495786122516</v>
       </c>
       <c r="F19" t="n">
-        <v>7.766348610617068</v>
+        <v>7.726116973109225</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.86447830854087</v>
+        <v>-11.07446115347487</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.017240924994683</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.97448476079993</v>
+        <v>-23.19642122752353</v>
       </c>
       <c r="F20" t="n">
-        <v>7.755847023866934</v>
+        <v>7.704052885118838</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.18577659726201</v>
+        <v>-10.35910655771474</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.075375340862323</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.74471845864118</v>
+        <v>-24.00168954857309</v>
       </c>
       <c r="F21" t="n">
-        <v>7.993980770340627</v>
+        <v>7.969447733882449</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.646954261452443</v>
+        <v>-9.788466565215296</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.174561387395487</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.14059601167588</v>
+        <v>-24.39738620835372</v>
       </c>
       <c r="F22" t="n">
-        <v>7.913150819809923</v>
+        <v>7.876507713342395</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.056210672716242</v>
+        <v>-9.191934392348669</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.32011581726733</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.79177750330089</v>
+        <v>-25.07060734293478</v>
       </c>
       <c r="F23" t="n">
-        <v>7.932046831350549</v>
+        <v>7.8956432862195</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.385326483417574</v>
+        <v>-8.505146263711925</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.511823923396343</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.3769476242088</v>
+        <v>-25.6564423687766</v>
       </c>
       <c r="F24" t="n">
-        <v>8.284021102720358</v>
+        <v>8.271651915347062</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.983499009025834</v>
+        <v>-8.102482769145942</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.744999113242383</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.61807833189192</v>
+        <v>-25.90172384328972</v>
       </c>
       <c r="F25" t="n">
-        <v>8.033449722777233</v>
+        <v>8.012735000682113</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.683485102637597</v>
+        <v>-7.819052374050282</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.007002348664872</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.7694713185328</v>
+        <v>-26.07663295296047</v>
       </c>
       <c r="F26" t="n">
-        <v>8.08776170006179</v>
+        <v>8.077088998071314</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.160288032774694</v>
+        <v>-7.288971582518762</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.285553538896829</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.67060093266318</v>
+        <v>-25.96098838453046</v>
       </c>
       <c r="F27" t="n">
-        <v>8.11405477899206</v>
+        <v>8.104682552828184</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.932910101408214</v>
+        <v>-7.070775206048348</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.561381850322794</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.59995478343626</v>
+        <v>-25.90062870575153</v>
       </c>
       <c r="F28" t="n">
-        <v>7.894161917138825</v>
+        <v>7.879455784483145</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.941641867672524</v>
+        <v>-7.077150471002805</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.815984061411158</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.76467520279636</v>
+        <v>-26.06624381336827</v>
       </c>
       <c r="F29" t="n">
-        <v>7.535049695743322</v>
+        <v>7.525760582696183</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.559482867906383</v>
+        <v>-6.698624003338782</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.030761394438086</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.77524523564263</v>
+        <v>-26.08222108780935</v>
       </c>
       <c r="F30" t="n">
-        <v>7.52904599531075</v>
+        <v>7.480009256435594</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.798692195890798</v>
+        <v>-6.913319850892486</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.187237585423167</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.54792108335169</v>
+        <v>-25.83454888893831</v>
       </c>
       <c r="F31" t="n">
-        <v>7.694700214982429</v>
+        <v>7.65159384143684</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.80123936846846</v>
+        <v>-6.899713744781861</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.272321529377938</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.45574863688974</v>
+        <v>-25.74984195596214</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5510269701844</v>
+        <v>7.501256880279206</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.864400448182135</v>
+        <v>-6.936694192723206</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.275463164962254</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.22643954781083</v>
+        <v>-25.52318270860509</v>
       </c>
       <c r="F33" t="n">
-        <v>7.516041237044757</v>
+        <v>7.456087345835778</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.95023674174456</v>
+        <v>-7.017137911711425</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.193680518659888</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.02205461573945</v>
+        <v>-25.32267475897918</v>
       </c>
       <c r="F34" t="n">
-        <v>7.537425753080642</v>
+        <v>7.482331534697377</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.806172376397178</v>
+        <v>-6.842175022965139</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.027979060580815</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.74651018872012</v>
+        <v>-25.02536936239521</v>
       </c>
       <c r="F35" t="n">
-        <v>7.88624661502129</v>
+        <v>7.824112226749668</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.22032503710041</v>
+        <v>-7.257872609838317</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.78550151226223</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.34699032556956</v>
+        <v>-24.61043446059328</v>
       </c>
       <c r="F36" t="n">
-        <v>7.944108011291228</v>
+        <v>7.875842808408495</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.355965643616098</v>
+        <v>-7.400959173812316</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.476709435372036</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.86291508865571</v>
+        <v>-24.09788075867965</v>
       </c>
       <c r="F37" t="n">
-        <v>7.935845589686142</v>
+        <v>7.862862495176836</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.302743914862862</v>
+        <v>-7.356943444989481</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.112377853470034</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.29175686142838</v>
+        <v>-23.51041280454428</v>
       </c>
       <c r="F38" t="n">
-        <v>7.695477567074269</v>
+        <v>7.628996851697959</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.23379425101876</v>
+        <v>-7.31629624189795</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.706656409183515</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.77207009849592</v>
+        <v>-22.99083359976289</v>
       </c>
       <c r="F39" t="n">
-        <v>7.635597010968294</v>
+        <v>7.555143513966342</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.429911872478186</v>
+        <v>-7.506982176728234</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.26966949774333</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.47598695362868</v>
+        <v>-22.66847204298599</v>
       </c>
       <c r="F40" t="n">
-        <v>7.519043087261042</v>
+        <v>7.422597648797411</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.421522336694561</v>
+        <v>-7.48871684707344</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8143893937276975</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.96050962560864</v>
+        <v>-22.14725990991105</v>
       </c>
       <c r="F41" t="n">
-        <v>7.603769576264678</v>
+        <v>7.506879238176158</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.823819155745524</v>
+        <v>-7.882946804793994</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3505133292999491</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.52443465811416</v>
+        <v>-21.69245515710942</v>
       </c>
       <c r="F42" t="n">
-        <v>7.661342521129469</v>
+        <v>7.556326653628135</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.868157559021576</v>
+        <v>-7.95106533747072</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1151228291469736</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.20653676460675</v>
+        <v>-21.3802480675951</v>
       </c>
       <c r="F43" t="n">
-        <v>7.51446697683361</v>
+        <v>7.417229519257538</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.064573409899884</v>
+        <v>-8.151177277540414</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.5721902132627412</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.30626037311243</v>
+        <v>-20.48086147535056</v>
       </c>
       <c r="F44" t="n">
-        <v>7.772469647214446</v>
+        <v>7.674831291075287</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.061845344068145</v>
+        <v>-8.149529682226264</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.016728123471814</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.43958612581442</v>
+        <v>-19.60421365404404</v>
       </c>
       <c r="F45" t="n">
-        <v>7.924116862212413</v>
+        <v>7.803377948627082</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.204403895300517</v>
+        <v>-8.281107524035546</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.440132633711366</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.02920288940557</v>
+        <v>-19.17959851864561</v>
       </c>
       <c r="F46" t="n">
-        <v>7.703691098610686</v>
+        <v>7.601716193380573</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.125695773750055</v>
+        <v>-8.202423847519418</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.838277836432032</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.84322017918126</v>
+        <v>-18.98010748244801</v>
       </c>
       <c r="F47" t="n">
-        <v>7.955445618215604</v>
+        <v>7.860955782498739</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.53361495069797</v>
+        <v>-8.603801533279402</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.209017073187303</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.04732897330245</v>
+        <v>-18.1947227523262</v>
       </c>
       <c r="F48" t="n">
-        <v>7.918421169212457</v>
+        <v>7.827979431181397</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.482549273973044</v>
+        <v>-8.573079014127707</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.548046988403597</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.5076021712225</v>
+        <v>-17.64308144051158</v>
       </c>
       <c r="F49" t="n">
-        <v>7.925441783073347</v>
+        <v>7.81876854224413</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.73356066453419</v>
+        <v>-8.83235282629394</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.858673007477898</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.06668219792291</v>
+        <v>-17.19575686821633</v>
       </c>
       <c r="F50" t="n">
-        <v>7.80235125718503</v>
+        <v>7.691424580381597</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.407368479939276</v>
+        <v>-9.484712568573871</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.13902453895939</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.53398578771759</v>
+        <v>-16.64462401311588</v>
       </c>
       <c r="F51" t="n">
-        <v>7.884095451999848</v>
+        <v>7.766690841097752</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.537699624997494</v>
+        <v>-9.662608861440305</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.393521851764786</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.84770122678814</v>
+        <v>-15.96487605436749</v>
       </c>
       <c r="F52" t="n">
-        <v>7.831074172528155</v>
+        <v>7.684066625046889</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.797579674015225</v>
+        <v>-9.891204155516647</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.625868041665798</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.68377771554735</v>
+        <v>-15.76146892366949</v>
       </c>
       <c r="F53" t="n">
-        <v>7.878732211466842</v>
+        <v>7.752312271902155</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.25096172581858</v>
+        <v>-10.34683026147192</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.83790423738803</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.29237360379587</v>
+        <v>-15.3533688534675</v>
       </c>
       <c r="F54" t="n">
-        <v>7.855758768199208</v>
+        <v>7.705979153824402</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.47912678729064</v>
+        <v>-10.57865230008042</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.037418445793032</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.7219878396535</v>
+        <v>-14.7855449289234</v>
       </c>
       <c r="F55" t="n">
-        <v>7.902302113572238</v>
+        <v>7.770885608989565</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.00599061230373</v>
+        <v>-11.11448256368744</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.22372842272066</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.57483362196623</v>
+        <v>-14.63110609100442</v>
       </c>
       <c r="F56" t="n">
-        <v>7.657675765979282</v>
+        <v>7.515122103753776</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.40509979887746</v>
+        <v>-11.51055078798995</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.402031429671477</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.4271856145854</v>
+        <v>-14.48911955357548</v>
       </c>
       <c r="F57" t="n">
-        <v>7.705803149577193</v>
+        <v>7.552542562313143</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.06310145508181</v>
+        <v>-12.19124232506365</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.571442105024786</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.95849119327486</v>
+        <v>-14.01154669579463</v>
       </c>
       <c r="F58" t="n">
-        <v>7.386761228462924</v>
+        <v>7.262942240551436</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.28037869826125</v>
+        <v>-12.39467878980285</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.728101691980992</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.85267841765423</v>
+        <v>-13.90668727651303</v>
       </c>
       <c r="F59" t="n">
-        <v>7.639464215400024</v>
+        <v>7.490510843185726</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.21566291436389</v>
+        <v>-12.32379307923945</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.872630318259433</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.22797578722043</v>
+        <v>-13.2536186282374</v>
       </c>
       <c r="F60" t="n">
-        <v>7.531446497682405</v>
+        <v>7.381456656012322</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.38417720305272</v>
+        <v>-12.4948007614304</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.996120656403131</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.90323817310621</v>
+        <v>-12.92975125734549</v>
       </c>
       <c r="F61" t="n">
-        <v>7.315919518961326</v>
+        <v>7.200299395565655</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.47471183221425</v>
+        <v>-12.59319202462706</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.098670349227049</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.85582947351774</v>
+        <v>-12.88822892202478</v>
       </c>
       <c r="F62" t="n">
-        <v>7.494128708267244</v>
+        <v>7.365601606742916</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.78926564502469</v>
+        <v>-12.88323724601366</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.175213655837803</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.85221649744308</v>
+        <v>-12.90234348484956</v>
       </c>
       <c r="F63" t="n">
-        <v>7.532566080254929</v>
+        <v>7.401232688788992</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.74457034424735</v>
+        <v>-12.85889976983016</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.221362291455853</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.16909258851531</v>
+        <v>-13.23416526991395</v>
       </c>
       <c r="F64" t="n">
-        <v>7.341146794394608</v>
+        <v>7.210140966388755</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.01163234435258</v>
+        <v>-13.10111094803086</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.239685693658405</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.09148938251677</v>
+        <v>-13.13872207785803</v>
       </c>
       <c r="F65" t="n">
-        <v>7.520671126547724</v>
+        <v>7.376792543461285</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.08004421744132</v>
+        <v>-13.16960593423634</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.224999008773775</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.01680491361778</v>
+        <v>-13.06407672101398</v>
       </c>
       <c r="F66" t="n">
-        <v>7.312242985797407</v>
+        <v>7.169371538125551</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.36866673782965</v>
+        <v>-13.45576439516373</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.183674311358128</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.3362086212402</v>
+        <v>-13.40844858670573</v>
       </c>
       <c r="F67" t="n">
-        <v>7.239167000157629</v>
+        <v>7.111647034047887</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.35020095889331</v>
+        <v>-13.4418796156617</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.117482341563748</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.21043403058194</v>
+        <v>-13.27158572847332</v>
       </c>
       <c r="F68" t="n">
-        <v>7.373780915231265</v>
+        <v>7.241367053247741</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.30966131395285</v>
+        <v>-13.39048637547669</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.029182215142133</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.68380234245725</v>
+        <v>-13.75836458618457</v>
       </c>
       <c r="F69" t="n">
-        <v>7.442627909931161</v>
+        <v>7.312154983673802</v>
       </c>
       <c r="G69" t="n">
-        <v>-12.95012374895992</v>
+        <v>-13.00317436247282</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.926462828719019</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.59994120766906</v>
+        <v>-13.68214496912936</v>
       </c>
       <c r="F70" t="n">
-        <v>7.545155272937235</v>
+        <v>7.429031581834271</v>
       </c>
       <c r="G70" t="n">
-        <v>-12.98702108378453</v>
+        <v>-13.04903324688448</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.806578414005803</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.90317696958259</v>
+        <v>-13.98578651861285</v>
       </c>
       <c r="F71" t="n">
-        <v>7.399697540632781</v>
+        <v>7.278425725298956</v>
       </c>
       <c r="G71" t="n">
-        <v>-12.8446776488543</v>
+        <v>-12.87357167943777</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.674513516737791</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.95500533137875</v>
+        <v>-14.03167962607258</v>
       </c>
       <c r="F72" t="n">
-        <v>7.489943718389164</v>
+        <v>7.369869709737733</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.10411768725401</v>
+        <v>-13.13506510072158</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.527681605655454</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.34820370865039</v>
+        <v>-14.42931233257251</v>
       </c>
       <c r="F73" t="n">
-        <v>7.608609693062924</v>
+        <v>7.503471600389918</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.04467225275919</v>
+        <v>-13.08323673892542</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.363765878694465</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.58599033563653</v>
+        <v>-14.65163014183173</v>
       </c>
       <c r="F74" t="n">
-        <v>7.456933144023755</v>
+        <v>7.344197534679563</v>
       </c>
       <c r="G74" t="n">
-        <v>-12.958166165256</v>
+        <v>-12.99743955741793</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.183858166472072</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.10797982080331</v>
+        <v>-15.19886645845926</v>
       </c>
       <c r="F75" t="n">
-        <v>7.560800094911363</v>
+        <v>7.461039909791963</v>
       </c>
       <c r="G75" t="n">
-        <v>-12.98310498928413</v>
+        <v>-13.02710605108637</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.981663095916147</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.31342566736481</v>
+        <v>-15.38855503588869</v>
       </c>
       <c r="F76" t="n">
-        <v>7.66871025447791</v>
+        <v>7.569937648745626</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.11779712846764</v>
+        <v>-13.17320913229725</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.759416781292735</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.83621206065089</v>
+        <v>-15.92553421610942</v>
       </c>
       <c r="F77" t="n">
-        <v>7.651789401711516</v>
+        <v>7.551779877241905</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.85159070456412</v>
+        <v>-12.90463154006328</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.513440900903195</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.25802090610771</v>
+        <v>-16.32837860392948</v>
       </c>
       <c r="F78" t="n">
-        <v>7.733856270979551</v>
+        <v>7.634433427333969</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.77455951236901</v>
+        <v>-12.80573182015246</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.242578268266327</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.23072069176286</v>
+        <v>-16.30595761843781</v>
       </c>
       <c r="F79" t="n">
-        <v>7.835146715248295</v>
+        <v>7.731617105834504</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.51194650851267</v>
+        <v>-12.53095007820437</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.947307557007797</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.99313197861704</v>
+        <v>-17.08600844206783</v>
       </c>
       <c r="F80" t="n">
-        <v>7.860496215853249</v>
+        <v>7.760032013745014</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.3805740049918</v>
+        <v>-12.37384184253606</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.623384976304546</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.87399412384284</v>
+        <v>-17.97108491121291</v>
       </c>
       <c r="F81" t="n">
-        <v>7.91689579906998</v>
+        <v>7.835342275522971</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.93250630365278</v>
+        <v>-11.93039425268627</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.27364936207446</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.59233590279866</v>
+        <v>-18.69872069222273</v>
       </c>
       <c r="F82" t="n">
-        <v>7.946552514724686</v>
+        <v>7.879807792977563</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.91289160810271</v>
+        <v>-11.8771774129399</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.895239566694989</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.3113083636403</v>
+        <v>-19.40069896519497</v>
       </c>
       <c r="F83" t="n">
-        <v>8.098913524725223</v>
+        <v>8.023994383496619</v>
       </c>
       <c r="G83" t="n">
-        <v>-11.99044592403259</v>
+        <v>-11.9618061218062</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.490329104813075</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.3464137865104</v>
+        <v>-20.40987309564296</v>
       </c>
       <c r="F84" t="n">
-        <v>7.847286119298845</v>
+        <v>7.765409921298621</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.82567172559695</v>
+        <v>-11.77608252894583</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.061604895341468</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.37179497472221</v>
+        <v>-21.43200309428826</v>
       </c>
       <c r="F85" t="n">
-        <v>8.296776521636138</v>
+        <v>8.221661820132857</v>
       </c>
       <c r="G85" t="n">
-        <v>-11.9710414557778</v>
+        <v>-11.92725062127084</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6110583216837973</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.38024553215389</v>
+        <v>-22.44822228363147</v>
       </c>
       <c r="F86" t="n">
-        <v>8.26457263340377</v>
+        <v>8.195314962127052</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.53338733906531</v>
+        <v>-11.49932562822351</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1481854206185726</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.25032252823127</v>
+        <v>-23.31048175772866</v>
       </c>
       <c r="F87" t="n">
-        <v>8.381864797147927</v>
+        <v>8.283752207342676</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.38779760357545</v>
+        <v>-11.35660573976453</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3209696310816746</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.5046119069589</v>
+        <v>-24.54993300061521</v>
       </c>
       <c r="F88" t="n">
-        <v>8.411893077324518</v>
+        <v>8.308568806199137</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.50658580342088</v>
+        <v>-11.48170075846828</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7843935110235619</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.89041068139968</v>
+        <v>-25.92909250373071</v>
       </c>
       <c r="F89" t="n">
-        <v>8.331938259022991</v>
+        <v>8.246160633542967</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.0080488841947</v>
+        <v>-10.97553209952285</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.229124285929201</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.40687305336562</v>
+        <v>-27.40571924774503</v>
       </c>
       <c r="F90" t="n">
-        <v>8.376814453054402</v>
+        <v>8.28742385149973</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.16644781767588</v>
+        <v>-11.11613993701532</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.642191746122349</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.14475121282385</v>
+        <v>-29.12960018054327</v>
       </c>
       <c r="F91" t="n">
-        <v>8.507580719723776</v>
+        <v>8.421250636467793</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.84351913610241</v>
+        <v>-10.78539862246852</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.006184631258672</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.01017867243301</v>
+        <v>-30.99257335870525</v>
       </c>
       <c r="F92" t="n">
-        <v>8.541026415700342</v>
+        <v>8.443070274114834</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.81403842469491</v>
+        <v>-10.7527009445426</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.306672860270817</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.59881500827179</v>
+        <v>-32.55765690396267</v>
       </c>
       <c r="F93" t="n">
-        <v>8.430085071876308</v>
+        <v>8.319965081205916</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.95966238323284</v>
+        <v>-10.93009855870861</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.528406367577614</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.66257236494766</v>
+        <v>-34.58648230657443</v>
       </c>
       <c r="F94" t="n">
-        <v>8.341217594056396</v>
+        <v>8.240303603316404</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.25831479214642</v>
+        <v>-10.22865318748485</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.660169625642292</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.94247027070641</v>
+        <v>-36.86033006633537</v>
       </c>
       <c r="F95" t="n">
-        <v>8.148419608259603</v>
+        <v>8.042069041883604</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.770665691212859</v>
+        <v>-9.760555225012078</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.686641469588838</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.7912555509406</v>
+        <v>-38.69243894414651</v>
       </c>
       <c r="F96" t="n">
-        <v>7.886882185913989</v>
+        <v>7.793815051195396</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.246818383436656</v>
+        <v>-9.248304641524198</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.610216230988984</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.42042410727175</v>
+        <v>-41.32364621634117</v>
       </c>
       <c r="F97" t="n">
-        <v>7.622929594176118</v>
+        <v>7.536286614480651</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.829825209743746</v>
+        <v>-8.832470162458748</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.411089377549693</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.37370702027938</v>
+        <v>-43.24147649605336</v>
       </c>
       <c r="F98" t="n">
-        <v>7.332801259672784</v>
+        <v>7.251585077599593</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.309908663488542</v>
+        <v>-8.300580438386469</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.115643843642538</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.97658249768026</v>
+        <v>-45.82785646428528</v>
       </c>
       <c r="F99" t="n">
-        <v>6.978788272439473</v>
+        <v>6.91316802227174</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.061904012150547</v>
+        <v>-8.036662069696666</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.685035368280034</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.26985550397517</v>
+        <v>-48.12803397052799</v>
       </c>
       <c r="F100" t="n">
-        <v>6.382813446355674</v>
+        <v>6.30732229132364</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.660570327452367</v>
+        <v>-7.636418633529807</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.192623083294267</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.38463453631417</v>
+        <v>-50.22993780328296</v>
       </c>
       <c r="F101" t="n">
-        <v>6.075211801309986</v>
+        <v>5.987713245412809</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.404674819031172</v>
+        <v>-7.377183933418509</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.5315421302817375</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.37599670155648</v>
+        <v>-52.2324444596784</v>
       </c>
       <c r="F102" t="n">
-        <v>5.66938511930111</v>
+        <v>5.576625992015132</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.243674933896796</v>
+        <v>-7.201717476964931</v>
       </c>
     </row>
   </sheetData>
